--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D03751F-FFAA-40F4-AF43-659C32F1DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A8BE8-114B-4417-998B-BB4E993F4C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="MapData" sheetId="2" r:id="rId2"/>
+    <sheet name="EnumData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>string</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>ColorType</t>
   </si>
@@ -36,12 +32,6 @@
   </si>
   <si>
     <t>Green</t>
-  </si>
-  <si>
-    <t>MapResourceKey</t>
-  </si>
-  <si>
-    <t>map1</t>
   </si>
   <si>
     <t>EnumName</t>
@@ -61,6 +51,10 @@
   </si>
   <si>
     <t>ResourceKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -109,18 +103,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -138,12 +126,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -199,25 +181,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -439,114 +419,83 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="14"/>
+    <col min="1" max="1" width="12.5703125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F12" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/sp-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A8BE8-114B-4417-998B-BB4E993F4C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D577BF-E01E-194B-A384-E8DA68A80797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="3080" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>ColorType</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequirementType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysTrue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysFalse</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -81,12 +93,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -181,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -198,6 +212,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -419,15 +434,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="12"/>
+    <col min="1" max="1" width="12.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13" t="s">
@@ -437,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -451,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -461,7 +476,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -471,7 +486,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -480,7 +495,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -489,12 +504,24 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="F12" s="6"/>
     </row>
   </sheetData>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/sp-data/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D577BF-E01E-194B-A384-E8DA68A80797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C0DE0-6550-154F-96B8-FBDF5A537349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="3080" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>ColorType</t>
   </si>
@@ -67,6 +67,13 @@
   </si>
   <si>
     <t>AlwaysFalse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcMenuFunctionType</t>
+  </si>
+  <si>
+    <t>Talk</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -434,12 +441,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="12"/>
+    <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -466,7 +473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -486,7 +493,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -517,8 +524,16 @@
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C0DE0-6550-154F-96B8-FBDF5A537349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18753523-E8E0-5F42-B694-984AB4214152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="3080" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8740" yWindow="3280" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="1" r:id="rId1"/>
@@ -20,61 +20,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>ColorType</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>EnumName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DisplayName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ResourceKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yellow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RequirementType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AlwaysTrue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AlwaysFalse</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NpcMenuFunctionType</t>
   </si>
   <si>
-    <t>Talk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>PlayCutscene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutsceneCommand</t>
+  </si>
+  <si>
+    <t>ShowDialog</t>
+  </si>
+  <si>
+    <t>ShowFullIllustration</t>
+  </si>
+  <si>
+    <t>ShowSpotIllustration</t>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -104,12 +104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -124,30 +118,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -162,27 +138,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -202,24 +163,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -438,109 +390,116 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
+    <col min="1" max="2" width="22.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="F12" s="6"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18753523-E8E0-5F42-B694-984AB4214152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B106D-C6DF-AA46-AA66-1641108AD40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="3280" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="3280" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EnumData" sheetId="1" r:id="rId1"/>
+    <sheet name="Enum" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -171,7 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B106D-C6DF-AA46-AA66-1641108AD40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C438039-1A0B-1A43-822C-7D182879D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3280" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,10 +70,17 @@
     <t>ShowFullIllustration</t>
   </si>
   <si>
+    <t>Order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideFullIllustration</t>
+  </si>
+  <si>
+    <t>HideSpotIllustration</t>
+  </si>
+  <si>
     <t>ShowSpotIllustration</t>
-  </si>
-  <si>
-    <t>Order</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -81,9 +88,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -167,11 +171,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -390,51 +394,51 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="22.6640625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="22.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -442,61 +446,82 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C438039-1A0B-1A43-822C-7D182879D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226AAC0E-5D77-AE49-A26F-24B9ACCA9172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3280" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>ShowSpotIllustration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainCoin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -176,6 +184,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -394,10 +403,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -523,6 +532,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226AAC0E-5D77-AE49-A26F-24B9ACCA9172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB6977-2585-504C-99FA-00A5CA4F4C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3280" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>MainCoin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -533,13 +537,24 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB6977-2585-504C-99FA-00A5CA4F4C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BB474-FCBB-064F-A7EA-632E958B82EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>Selection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaySlimeMinigame</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +411,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -483,13 +487,13 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -497,10 +501,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -508,10 +512,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -519,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -530,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -541,20 +545,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BB474-FCBB-064F-A7EA-632E958B82EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87118661-0377-274F-AC92-69D57989F883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>PlaySlimeMinigame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artifact</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +415,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -573,6 +577,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87118661-0377-274F-AC92-69D57989F883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB70B5A-F2B1-204D-B0E8-0F5AEF618DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -101,6 +101,30 @@
   </si>
   <si>
     <t>Artifact</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtifactType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubblegun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grinder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pendant</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A15" sqref="A15:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -588,6 +612,61 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB70B5A-F2B1-204D-B0E8-0F5AEF618DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82A120A-5CCE-954F-B1AA-81364B6E708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>Pendant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivateDuration</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -503,14 +507,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -518,21 +522,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -540,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -551,10 +555,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -562,10 +566,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -573,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -584,21 +588,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -606,21 +610,21 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -628,10 +632,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -639,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -650,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -661,9 +665,20 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
     </row>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82A120A-5CCE-954F-B1AA-81364B6E708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE86517-4C66-EC4C-81A1-C2B872592D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>ActivateDuration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayFixedCutscene</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -536,18 +540,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -555,10 +559,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -566,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -577,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -588,10 +592,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -599,21 +603,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -621,21 +625,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -643,10 +647,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -654,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -665,10 +669,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -676,11 +680,25 @@
         <v>22</v>
       </c>
       <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
         <v>5</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE86517-4C66-EC4C-81A1-C2B872592D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D8B15A-1DA7-E94D-906F-86903107A9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>PlayFixedCutscene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoToMyhome</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +451,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -556,13 +560,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -570,10 +574,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -581,10 +585,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -592,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -603,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -614,21 +618,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -636,21 +640,21 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -658,10 +662,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -669,10 +673,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -680,10 +684,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -691,14 +695,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D8B15A-1DA7-E94D-906F-86903107A9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE86517-4C66-EC4C-81A1-C2B872592D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>PlayFixedCutscene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoToMyhome</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -560,13 +556,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -574,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -585,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -596,10 +592,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -607,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -618,21 +614,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
+      <c r="A15" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -640,21 +636,21 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -662,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -673,10 +669,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -684,10 +680,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,25 +691,14 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
+      <c r="A22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE86517-4C66-EC4C-81A1-C2B872592D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71220AE-C33B-2D40-8D1B-9A10AE0F1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="12200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -133,6 +133,20 @@
   </si>
   <si>
     <t>PlayFixedCutscene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CottonCandyShop</t>
+  </si>
+  <si>
+    <t>PowderShop</t>
+  </si>
+  <si>
+    <t>BeddingShop</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -698,7 +712,37 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71220AE-C33B-2D40-8D1B-9A10AE0F1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614413F-4747-2446-BA23-274CDD7710CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="2660" windowWidth="21600" windowHeight="12200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="21600" windowHeight="12200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>BeddingShop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadingType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +469,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -744,6 +752,50 @@
         <v>33</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614413F-4747-2446-BA23-274CDD7710CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438C948-94B1-E347-85F8-61EBF61E29C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="21600" windowHeight="12200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>Normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayPowderPortalMinigame</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +473,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -578,13 +582,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -592,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -603,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -614,10 +618,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -625,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -636,21 +640,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -658,21 +662,21 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -680,10 +684,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -691,10 +695,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -702,10 +706,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -713,21 +717,21 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -735,10 +739,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -746,21 +750,21 @@
         <v>30</v>
       </c>
       <c r="B24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -768,10 +772,10 @@
         <v>34</v>
       </c>
       <c r="B26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -779,10 +783,10 @@
         <v>34</v>
       </c>
       <c r="B27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -790,9 +794,20 @@
         <v>34</v>
       </c>
       <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
     </row>

--- a/excel/EnumData.xlsx
+++ b/excel/EnumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438C948-94B1-E347-85F8-61EBF61E29C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A2794-3876-D44E-8BB0-ACDF53970894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="21600" windowHeight="12200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -159,6 +159,26 @@
   </si>
   <si>
     <t>PlayPowderPortalMinigame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyhomeSlimeAppeared</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myhome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoppingSquare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowderShop</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +493,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -548,14 +568,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -563,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -574,10 +594,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -585,21 +605,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -607,10 +627,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -618,10 +638,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -629,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -640,10 +660,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -651,21 +671,21 @@
         <v>10</v>
       </c>
       <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -673,21 +693,21 @@
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,10 +715,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -706,10 +726,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -717,10 +737,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -728,21 +748,21 @@
         <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -750,10 +770,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -761,21 +781,21 @@
         <v>30</v>
       </c>
       <c r="B25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -783,10 +803,10 @@
         <v>34</v>
       </c>
       <c r="B27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -794,10 +814,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,10 +825,54 @@
         <v>34</v>
       </c>
       <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4">
         <v>4</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
